--- a/data/candidate_features.xlsx
+++ b/data/candidate_features.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mik6Y0EKoEfcvHmgAuuFNgDZdgQPw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgHqBw3q6k9T0PmlhJN8ndgaiv92A=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>Candidate</t>
   </si>
@@ -51,33 +51,18 @@
     <t>gun_licenses</t>
   </si>
   <si>
-    <t>gun_registration</t>
-  </si>
-  <si>
-    <t>gun_purchase_21</t>
-  </si>
-  <si>
     <t>tax_wealthy_assets</t>
   </si>
   <si>
-    <t>UBI</t>
-  </si>
-  <si>
     <t>paid_family_leave</t>
   </si>
   <si>
-    <t>reparations_study</t>
-  </si>
-  <si>
     <t>job_guarantee</t>
   </si>
   <si>
     <t>cancel_student_debt</t>
   </si>
   <si>
-    <t>breakup_tech</t>
-  </si>
-  <si>
     <t>ratify_NA_trade</t>
   </si>
   <si>
@@ -87,7 +72,7 @@
     <t>rent_control</t>
   </si>
   <si>
-    <t>lower_debtGDP_ratio</t>
+    <t>lower_debt</t>
   </si>
   <si>
     <t>TPP</t>
@@ -102,6 +87,9 @@
     <t>free_college</t>
   </si>
   <si>
+    <t>children_public</t>
+  </si>
+  <si>
     <t>ban_fracking</t>
   </si>
   <si>
@@ -111,10 +99,13 @@
     <t>medicare_for_all</t>
   </si>
   <si>
+    <t>private_insurance</t>
+  </si>
+  <si>
     <t>eliminate_electoral_college</t>
   </si>
   <si>
-    <t>increase_scjustices</t>
+    <t>eliminate_filibuster</t>
   </si>
   <si>
     <t>Sanders</t>
@@ -123,67 +114,34 @@
     <t>Male</t>
   </si>
   <si>
-    <t>UNCLEAR</t>
-  </si>
-  <si>
-    <t>Bloombeg</t>
-  </si>
-  <si>
-    <t>Warren</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>Biden</t>
   </si>
   <si>
-    <t>Buttigieg</t>
-  </si>
-  <si>
-    <t>Klobuchar</t>
-  </si>
-  <si>
     <t>Cannabis legalization</t>
   </si>
   <si>
     <t>Voting while incarcerated</t>
   </si>
   <si>
-    <t>Require gun owners to obtain a license, candidates vary whether this applied to assault weapons only</t>
-  </si>
-  <si>
-    <t>Require gun owners to register every firearm they own, candidates varry on whether this is for assault weapons only</t>
-  </si>
-  <si>
-    <t>Increase minimum age to purchase a gun to 21</t>
+    <t>Require gun owners to obtain a license for assault wepaons</t>
   </si>
   <si>
     <t>Tax assets held by the wealthiest americans</t>
   </si>
   <si>
-    <t>Supports universal basic income</t>
-  </si>
-  <si>
     <t>Supports paid family leave more than 12 weeks</t>
   </si>
   <si>
-    <t>Federal government should determine the form reparations could take</t>
-  </si>
-  <si>
     <t>The federal government should guarantee a job to every american</t>
   </si>
   <si>
     <t>The federal government should cancel existing student debt, yes candidates vary whether it should be based on income</t>
   </si>
   <si>
-    <t>Supports breaking up large tech companies</t>
-  </si>
-  <si>
     <t>Supports ratification of the north american trade agreement passed by the house (Trump's version)</t>
   </si>
   <si>
-    <t>Supports raising federal corporate income tax rate above current level of 21%</t>
+    <t>Supports returning federal corporate income tax rate to 35%</t>
   </si>
   <si>
     <t>Supports national rent control cap</t>
@@ -204,6 +162,9 @@
     <t>Government subsidizes public four-year colleges</t>
   </si>
   <si>
+    <t>Children attended K-12 public schools</t>
+  </si>
+  <si>
     <t>Ban  fracking</t>
   </si>
   <si>
@@ -213,23 +174,30 @@
     <t>Supports medicare for all</t>
   </si>
   <si>
+    <t>Get rid of private insurance</t>
+  </si>
+  <si>
     <t>Supports eliminating electoral college in favor of popular vote</t>
   </si>
   <si>
-    <t xml:space="preserve">Increase number of supreme court justices </t>
+    <t>Eliminate senate filibuster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font/>
@@ -243,12 +211,12 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -269,36 +237,56 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,18 +500,40 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="C2" sqref="C2" pane="topRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.13"/>
+    <col customWidth="1" min="1" max="1" width="22.63"/>
     <col customWidth="1" min="2" max="3" width="7.63"/>
     <col customWidth="1" min="4" max="4" width="10.25"/>
     <col customWidth="1" min="5" max="5" width="18.75"/>
     <col customWidth="1" min="6" max="6" width="15.5"/>
     <col customWidth="1" min="7" max="7" width="13.63"/>
     <col customWidth="1" min="8" max="8" width="17.0"/>
-    <col customWidth="1" min="9" max="33" width="7.63"/>
+    <col customWidth="1" min="9" max="9" width="14.25"/>
+    <col customWidth="1" min="10" max="11" width="16.0"/>
+    <col customWidth="1" min="12" max="12" width="18.75"/>
+    <col customWidth="1" min="13" max="13" width="18.63"/>
+    <col customWidth="1" min="14" max="14" width="15.25"/>
+    <col customWidth="1" min="15" max="15" width="18.75"/>
+    <col customWidth="1" min="16" max="16" width="14.88"/>
+    <col customWidth="1" min="17" max="17" width="16.38"/>
+    <col customWidth="1" min="18" max="18" width="11.38"/>
+    <col customWidth="1" min="19" max="19" width="10.38"/>
+    <col customWidth="1" min="20" max="20" width="5.13"/>
+    <col customWidth="1" min="21" max="21" width="11.75"/>
+    <col customWidth="1" min="22" max="22" width="16.25"/>
+    <col customWidth="1" min="23" max="23" width="11.5"/>
+    <col customWidth="1" min="24" max="24" width="13.38"/>
+    <col customWidth="1" min="25" max="25" width="12.38"/>
+    <col customWidth="1" min="26" max="26" width="14.0"/>
+    <col customWidth="1" min="27" max="28" width="15.5"/>
+    <col customWidth="1" min="29" max="29" width="15.25"/>
+    <col customWidth="1" min="30" max="30" width="17.25"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -581,7 +591,7 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
@@ -596,7 +606,7 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -608,832 +618,384 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="B2" s="5">
+        <v>78.0</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="D2" s="5">
+        <v>2000000.0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.5576</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1.32564706E8</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1505287.0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>10.8</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="N2" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="R2" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="S2" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="T2" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="U2" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="V2" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="W2" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="X2" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="AD2" s="9">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="B3" s="5">
+        <v>77.0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="5">
+        <v>9000000.0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.3624</v>
+      </c>
+      <c r="F3" s="5">
+        <v>6.8281497E7</v>
+      </c>
+      <c r="G3" s="5">
+        <v>7919417.0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P3" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S3" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="U3" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="V3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="W3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="X3" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="AD3" s="9">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="4">
-        <v>78.0</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="4">
-        <v>2000000.0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.5576</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1.32564706E8</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1505287.0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>10.8</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M2" s="7" t="s">
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="R2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="S2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="T2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="U2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="V2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="W2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="X2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="Y2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="Z2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AA2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AB2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AC2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AD2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AE2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AF2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AG2" s="6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="4">
-        <v>78.0</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="4">
-        <v>5.62E10</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>4.64143378E8</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="N3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="S3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="V3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="X3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="Z3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AA3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AB3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AC3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AD3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AE3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AF3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AG3" s="6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="B4" s="4">
-        <v>70.0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.2E7</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.5207</v>
-      </c>
-      <c r="F4" s="4">
-        <v>9.1990805E7</v>
-      </c>
-      <c r="G4" s="4">
-        <v>32525.0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>5.6</v>
-      </c>
-      <c r="I4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="O4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="R4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="S4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="T4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="U4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="V4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="W4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="X4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AA4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AB4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AC4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AD4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AE4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AF4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AG4" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="4">
-        <v>77.0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="4">
-        <v>9000000.0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.3624</v>
-      </c>
-      <c r="F5" s="4">
-        <v>6.8281497E7</v>
-      </c>
-      <c r="G5" s="4">
-        <v>7919417.0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="I5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="R5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="S5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="T5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="U5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="V5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="X5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AA5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AB5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AC5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AD5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AE5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AF5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AG5" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="4">
-        <v>38.0</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="4">
-        <v>100000.0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.4339</v>
-      </c>
-      <c r="F6" s="4">
-        <v>8.1490817E7</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="N6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="O6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="R6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="S6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="T6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="U6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="V6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="W6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="X6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="Y6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="Z6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AA6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AB6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AC6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AD6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AE6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AF6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AG6" s="6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="4">
-        <v>49.0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2000000.0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.3839</v>
-      </c>
-      <c r="F7" s="4">
-        <v>3.418815E7</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0.094</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="N7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="O7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="R7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="S7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="T7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="U7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="V7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="W7" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="X7" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="Z7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AA7" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AB7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AC7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AD7" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AE7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AF7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AG7" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11" t="s">
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11" t="s">
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11" t="s">
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11" t="s">
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11" t="s">
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11" t="s">
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11" t="s">
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="11" t="s">
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11" t="s">
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>58</v>
+        <v>28</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="9" t="s">
+      <c r="A26" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
+      <c r="B26" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
     <row r="36" ht="14.25" customHeight="1"/>
@@ -2394,13 +1956,6 @@
     <row r="991" ht="14.25" customHeight="1"/>
     <row r="992" ht="14.25" customHeight="1"/>
     <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
